--- a/controllers/DataSiswa.xlsx
+++ b/controllers/DataSiswa.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -91,24 +91,42 @@
     <t>Kelas 8</t>
   </si>
   <si>
+    <t>Alicia Debora</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Antonius Satria Nugraha</t>
+  </si>
+  <si>
+    <t>Arlin Murib</t>
+  </si>
+  <si>
     <t>Axel Alvaro</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Bram Felix Sitinjak</t>
   </si>
   <si>
     <t>Caesar Alexander</t>
   </si>
   <si>
+    <t>Cheeryl Paulina Ginto</t>
+  </si>
+  <si>
     <t>Daniel Enrico Siswanto</t>
   </si>
   <si>
     <t>Daniel Parsaulian Tohang</t>
   </si>
   <si>
+    <t>Deviana</t>
+  </si>
+  <si>
+    <t>Fania Sacharissa Nathaniel</t>
+  </si>
+  <si>
     <t>Gabriella Lintang S. Kingkin</t>
   </si>
   <si>
@@ -121,22 +139,37 @@
     <t>Kai Jasiello Bofyana</t>
   </si>
   <si>
+    <t>Kezia Ivana Renita</t>
+  </si>
+  <si>
+    <t>Luvenia Zizi Donelia Alivi</t>
+  </si>
+  <si>
     <t>Noah Gilbert Hermawan</t>
   </si>
   <si>
+    <t>Quincy Edward Gunawan</t>
+  </si>
+  <si>
     <t>Raphael Edward Hodianto</t>
   </si>
   <si>
     <t>Samuel Dwi Anugrah</t>
   </si>
   <si>
+    <t>Steven Ray Andreas Simatupang</t>
+  </si>
+  <si>
     <t>Suryatama Simanullang</t>
   </si>
   <si>
     <t>Venansius Fortunatus Jeff</t>
   </si>
   <si>
-    <t>Widyardha Dominica Samosir</t>
+    <t>Vincent Alexander Gunawan</t>
+  </si>
+  <si>
+    <t>Widyartha Dominica Samosir</t>
   </si>
   <si>
     <t>Yohanes Matthew Raditya</t>
@@ -523,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C51"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -954,6 +987,127 @@
         <v>27</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
